--- a/testData/SAP/SAP基础配置.xlsx
+++ b/testData/SAP/SAP基础配置.xlsx
@@ -13,15 +13,14 @@
     <sheet name="结束服务" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">数据表!$A$1:$BK$1</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">数据表!$A$1:$BK$1</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">'数据表'!$A$1:$BK$1</definedName>
   </definedNames>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="138">
   <si>
     <t>流程描述</t>
   </si>
@@ -59,7 +58,7 @@
     <t>调起服务</t>
   </si>
   <si>
-    <t>调起SAP服务并登陆</t>
+    <t>调起SAP服务并登录</t>
   </si>
   <si>
     <t>数据</t>
@@ -110,10 +109,10 @@
     <t>环境名称</t>
   </si>
   <si>
-    <t>登陆名称</t>
-  </si>
-  <si>
-    <t>登陆密码</t>
+    <t>登录名称</t>
+  </si>
+  <si>
+    <t>登录密码</t>
   </si>
   <si>
     <t>参数名称</t>
@@ -137,25 +136,22 @@
     <t>未使用</t>
   </si>
   <si>
-    <t>2019-05-27 11:46:01</t>
+    <t>2019-09-21 17:32:16</t>
   </si>
   <si>
     <t>成功</t>
   </si>
   <si>
-    <t>E:\python相关\工程\项目\UI-Ker+SAP\processpictures\2019-5-28\09-11-26.785058</t>
-  </si>
-  <si>
-    <t>D:\SAP\SAPgui\saplogon.exe</t>
-  </si>
-  <si>
-    <t>ET4</t>
-  </si>
-  <si>
-    <t>chenzhuo</t>
-  </si>
-  <si>
-    <t>kuser540</t>
+    <t>D:\zidonghua\自动化UI355\processpictures\2019-9-23\11-47-34.052374</t>
+  </si>
+  <si>
+    <t>D:\Program Files (x86)\SAP\FrontEnd\SAPgui\saplogon.exe</t>
+  </si>
+  <si>
+    <t>hanpeng</t>
+  </si>
+  <si>
+    <t>qwer12345</t>
   </si>
   <si>
     <t>sapgui/user_scripting</t>
@@ -200,13 +196,13 @@
     <t>#文件路径|#环境名称</t>
   </si>
   <si>
-    <t>登陆</t>
+    <t>登录</t>
   </si>
   <si>
     <t>saplogin</t>
   </si>
   <si>
-    <t>#登陆名称|#登陆密码</t>
+    <t>#登录名称|#登录密码</t>
   </si>
   <si>
     <t>参数A</t>
@@ -224,7 +220,7 @@
     <t>updateActiveWindow</t>
   </si>
   <si>
-    <t>2019-05-27 11:45:56</t>
+    <t>2019-09-21 17:32:10</t>
   </si>
   <si>
     <t>输入事务码</t>
@@ -248,9 +244,6 @@
     <t>id|tbar[0]/btn[0]</t>
   </si>
   <si>
-    <t>2019-05-27 11:45:57</t>
-  </si>
-  <si>
     <t>4</t>
   </si>
   <si>
@@ -263,6 +256,9 @@
     <t>#参数名称</t>
   </si>
   <si>
+    <t>2019-09-21 17:32:11</t>
+  </si>
+  <si>
     <t>5</t>
   </si>
   <si>
@@ -272,10 +268,10 @@
     <t>id|usr/btnPANZEIGEN_1000</t>
   </si>
   <si>
-    <t>2019-05-27 11:45:58</t>
-  </si>
-  <si>
-    <t>E:\python相关\工程\项目\UI-Ker+SAP\processpictures\2019-5-27\11-45-52.231722\11-45-58.341714.png</t>
+    <t>2019-09-21 17:32:12</t>
+  </si>
+  <si>
+    <t>D:\zidonghua\自动化UI355\processpictures\2019-9-21\17-32-05.000219\17-32-11.537173.png</t>
   </si>
   <si>
     <t>6</t>
@@ -341,7 +337,7 @@
     <t>id|tbar[0]/btn[11]</t>
   </si>
   <si>
-    <t>2019-05-27 11:45:59</t>
+    <t>2019-09-21 17:32:13</t>
   </si>
   <si>
     <t>12</t>
@@ -353,7 +349,10 @@
     <t>name|wnd[2]|GuiModalWindow</t>
   </si>
   <si>
-    <t>E:\python相关\工程\项目\UI-Ker+SAP\processpictures\2019-5-27\11-45-52.231722\11-45-59.842111.png</t>
+    <t>2019-09-21 17:32:14</t>
+  </si>
+  <si>
+    <t>D:\zidonghua\自动化UI355\processpictures\2019-9-21\17-32-05.000219\17-32-13.405247.png</t>
   </si>
   <si>
     <t>13</t>
@@ -377,9 +376,6 @@
     <t>过程</t>
   </si>
   <si>
-    <t>2019-05-27 11:46:00</t>
-  </si>
-  <si>
     <t>15</t>
   </si>
   <si>
@@ -404,67 +400,40 @@
     <t>closeSAP</t>
   </si>
   <si>
-    <t>2019-05-28 09:11:30</t>
-  </si>
-  <si>
-    <t>2019-05-28 09:11:33</t>
-  </si>
-  <si>
-    <t>E:\python相关\工程\项目\UI-Ker+SAP\processpictures\2019-5-28\09-11-26.785058\09-11-32.983540.png</t>
-  </si>
-  <si>
-    <t>2019-05-28 09:11:34</t>
-  </si>
-  <si>
-    <t>E:\python相关\工程\项目\UI-Ker+SAP\processpictures\2019-5-28\09-11-26.785058\09-11-34.719861.png</t>
-  </si>
-  <si>
-    <t>2019-05-28 09:11:35</t>
+    <t>2019-09-23 11:47:36</t>
+  </si>
+  <si>
+    <t>2019-09-23 11:47:39</t>
+  </si>
+  <si>
+    <t>D:\zidonghua\自动化UI355\processpictures\2019-9-23\11-47-34.052374\11-47-38.888238.png</t>
+  </si>
+  <si>
+    <t>2019-09-23 11:47:40</t>
+  </si>
+  <si>
+    <t>2019-09-23 11:47:41</t>
+  </si>
+  <si>
+    <t>D:\zidonghua\自动化UI355\processpictures\2019-9-23\11-47-34.052374\11-47-41.043576.png</t>
+  </si>
+  <si>
+    <t>2019-09-23 11:47:42</t>
   </si>
   <si>
     <t>失败</t>
   </si>
   <si>
-    <t>E:\python相关\工程\项目\UI-Ker+SAP\processpictures\2019-5-28\09-11-26.785058\09-11-35.894758.png</t>
-  </si>
-  <si>
-    <t>2019-05-28 09:11:36</t>
-  </si>
-  <si>
-    <t>2019-05-28 09:11:38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Traceback (most recent call last):
-  File "C:\Python37\lib\site-packages\psutil\_pswindows.py", line 636, in wrapper
-    return fun(self, *args, **kwargs)
-  File "C:\Python37\lib\site-packages\psutil\_pswindows.py", line 847, in create_time
-    return cext.proc_create_time(self.pid)
-ProcessLookupError: [Errno 3] No such process
-During handling of the above exception, another exception occurred:
-Traceback (most recent call last):
-  File "C:\Python37\lib\site-packages\psutil\__init__.py", line 365, in _init
-    self.create_time()
-  File "C:\Python37\lib\site-packages\psutil\__init__.py", line 696, in create_time
-    self._create_time = self._proc.create_time()
-  File "C:\Python37\lib\site-packages\psutil\_pswindows.py", line 641, in wrapper
-    raise NoSuchProcess(self.pid, self._name)
-psutil._exceptions.NoSuchProcess: psutil.NoSuchProcess process no longer exists (pid=15404)
-During handling of the above exception, another exception occurred:
-Traceback (most recent call last):
-  File "E:\python相关\工程\项目\UI-Ker+SAP\testScripts\DataFrameWork.py", line 268, in dataDriverRun
-    eval(runStr)
-  File "&lt;string&gt;", line 1, in &lt;module&gt;
-  File "E:\python相关\工程\项目\UI-Ker+SAP\action\PageAction.py", line 1511, in closeSAP
-    p = psutil.Process(pid)
-  File "C:\Python37\lib\site-packages\psutil\__init__.py", line 338, in __init__
-    self._init(pid)
-  File "C:\Python37\lib\site-packages\psutil\__init__.py", line 378, in _init
-    raise NoSuchProcess(pid, None, msg)
-psutil._exceptions.NoSuchProcess: psutil.NoSuchProcess no process found with pid 15404
-</t>
-  </si>
-  <si>
-    <t>E:\python相关\工程\项目\UI-Ker+SAP\processpictures\2019-5-28\09-11-26.785058\09-11-38.118681.png</t>
+    <t>2019-09-23 11:47:43</t>
+  </si>
+  <si>
+    <t>D:\zidonghua\自动化UI355\processpictures\2019-9-23\11-47-34.052374\11-47-42.802701.png</t>
+  </si>
+  <si>
+    <t>2019-09-23 11:47:44</t>
+  </si>
+  <si>
+    <t>2019-09-23 11:47:45</t>
   </si>
 </sst>
 </file>
@@ -543,14 +512,16 @@
     <font>
       <name val="等线"/>
       <charset val="134"/>
-      <color rgb="FF008B00"/>
-      <sz val="11"/>
+      <family val="3"/>
+      <sz val="9"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <name val="等线"/>
       <charset val="134"/>
-      <sz val="9"/>
-      <scheme val="minor"/>
+      <family val="3"/>
+      <color rgb="FF008B00"/>
+      <sz val="11"/>
     </font>
     <font>
       <color rgb="FF008B00"/>
@@ -752,10 +723,10 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="fill"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="9" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="8" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="9" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
@@ -782,11 +753,11 @@
     <xf applyAlignment="1" borderId="2" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="11" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="10" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="10" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1066,7 +1037,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="D7" pane="bottomLeft" sqref="D7"/>
+      <selection activeCell="F12" pane="bottomLeft" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="0"/>
@@ -1139,7 +1110,7 @@
         <v>15</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J2" s="40" t="s">
         <v>39</v>
@@ -1168,7 +1139,7 @@
         <v>15</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J3" s="40" t="s">
         <v>39</v>
@@ -1197,10 +1168,10 @@
         <v>15</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="J4" s="42" t="s">
-        <v>133</v>
+        <v>137</v>
+      </c>
+      <c r="J4" s="40" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:10"/>
@@ -1237,7 +1208,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="C3" pane="bottomLeft" sqref="C3"/>
+      <selection activeCell="C4" pane="bottomLeft" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.6640625" defaultRowHeight="14" outlineLevelCol="0"/>
@@ -1255,8 +1226,8 @@
     <col bestFit="1" customWidth="1" max="12" min="12" style="39" width="12.6640625"/>
     <col bestFit="1" customWidth="1" max="13" min="13" style="39" width="18.4140625"/>
     <col bestFit="1" customWidth="1" max="15" min="14" style="39" width="12.33203125"/>
-    <col customWidth="1" max="90" min="16" style="3" width="8.6640625"/>
-    <col customWidth="1" max="16384" min="91" style="3" width="8.6640625"/>
+    <col customWidth="1" max="94" min="16" style="3" width="8.6640625"/>
+    <col customWidth="1" max="16384" min="95" style="3" width="8.6640625"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="28" r="1" s="3" spans="1:15">
@@ -1327,13 +1298,13 @@
         <v>10</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="E3" s="41" t="s">
-        <v>133</v>
+        <v>137</v>
+      </c>
+      <c r="E3" s="42" t="s">
+        <v>39</v>
       </c>
       <c r="F3" s="22" t="s"/>
       <c r="G3" s="22" t="n"/>
@@ -1343,20 +1314,20 @@
       <c r="I3" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="J3" s="24" t="s">
+      <c r="J3" s="24" t="n">
+        <v>810</v>
+      </c>
+      <c r="K3" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="K3" s="24" t="s">
+      <c r="L3" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="L3" s="24" t="s">
+      <c r="M3" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="M3" s="24" t="s">
+      <c r="N3" s="26" t="s">
         <v>45</v>
-      </c>
-      <c r="N3" s="26" t="s">
-        <v>46</v>
       </c>
       <c r="O3" s="24" t="n"/>
     </row>
@@ -1406,8 +1377,8 @@
     <col customWidth="1" max="10" min="10" style="34" width="12.33203125"/>
     <col customWidth="1" max="11" min="11" style="34" width="16.25"/>
     <col customWidth="1" max="12" min="12" style="34" width="21.08203125"/>
-    <col customWidth="1" max="136" min="13" style="3" width="8.6640625"/>
-    <col customWidth="1" max="16384" min="137" style="3" width="8.6640625"/>
+    <col customWidth="1" max="140" min="13" style="3" width="8.6640625"/>
+    <col customWidth="1" max="16384" min="141" style="3" width="8.6640625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -1415,22 +1386,22 @@
         <v>1</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>52</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>8</v>
@@ -1439,13 +1410,13 @@
         <v>9</v>
       </c>
       <c r="J1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>55</v>
       </c>
     </row>
     <row customHeight="1" ht="42" r="2" s="3" spans="1:12">
@@ -1453,19 +1424,19 @@
         <v>10</v>
       </c>
       <c r="B2" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="14" t="s">
         <v>56</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>57</v>
       </c>
       <c r="D2" s="1" t="n"/>
       <c r="E2" s="14" t="n"/>
       <c r="F2" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G2" s="1" t="n"/>
       <c r="H2" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I2" s="40" t="s">
         <v>39</v>
@@ -1479,19 +1450,19 @@
         <v>16</v>
       </c>
       <c r="B3" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="14" t="s">
         <v>59</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>60</v>
       </c>
       <c r="D3" s="1" t="n"/>
       <c r="E3" s="1" t="n"/>
       <c r="F3" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G3" s="1" t="n"/>
       <c r="H3" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I3" s="40" t="s">
         <v>39</v>
@@ -1501,7 +1472,7 @@
         <v>15</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -1525,7 +1496,7 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A14" ySplit="1"/>
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="1"/>
       <selection activeCell="C17" pane="bottomLeft" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -1550,22 +1521,22 @@
         <v>1</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>48</v>
-      </c>
       <c r="D1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>64</v>
-      </c>
       <c r="G1" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>8</v>
@@ -1574,13 +1545,13 @@
         <v>9</v>
       </c>
       <c r="J1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>55</v>
       </c>
     </row>
     <row customHeight="1" ht="42" r="2" s="3" spans="1:12">
@@ -1588,17 +1559,17 @@
         <v>10</v>
       </c>
       <c r="B2" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="14" t="s">
         <v>65</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>66</v>
       </c>
       <c r="D2" s="1" t="n"/>
       <c r="E2" s="1" t="n"/>
       <c r="F2" s="14" t="n"/>
       <c r="G2" s="1" t="n"/>
       <c r="H2" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I2" s="40" t="s">
         <v>39</v>
@@ -1612,23 +1583,23 @@
         <v>16</v>
       </c>
       <c r="B3" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="D3" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="E3" s="14" t="s">
         <v>70</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>71</v>
       </c>
       <c r="F3" s="14" t="s">
         <v>17</v>
       </c>
       <c r="G3" s="1" t="n"/>
       <c r="H3" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I3" s="40" t="s">
         <v>39</v>
@@ -1642,21 +1613,21 @@
         <v>19</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="D4" s="14" t="s">
+      <c r="E4" s="14" t="s">
         <v>73</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>74</v>
       </c>
       <c r="F4" s="14" t="n"/>
       <c r="G4" s="1" t="n"/>
       <c r="H4" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I4" s="40" t="s">
         <v>39</v>
@@ -1667,26 +1638,26 @@
     </row>
     <row customHeight="1" ht="42" r="5" s="3" spans="1:12">
       <c r="A5" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="F5" s="14" t="s">
         <v>77</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>79</v>
       </c>
       <c r="G5" s="1" t="n"/>
       <c r="H5" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I5" s="40" t="s">
         <v>39</v>
@@ -1697,19 +1668,19 @@
     </row>
     <row customHeight="1" ht="42" r="6" s="3" spans="1:12">
       <c r="A6" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="C6" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="14" t="s">
         <v>81</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>82</v>
       </c>
       <c r="F6" s="14" t="n"/>
       <c r="G6" s="1" t="n"/>
@@ -1729,19 +1700,19 @@
     </row>
     <row customHeight="1" ht="42" r="7" s="3" spans="1:12">
       <c r="A7" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="C7" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="14" t="s">
         <v>86</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>87</v>
       </c>
       <c r="F7" s="1" t="n"/>
       <c r="G7" s="1" t="n"/>
@@ -1757,19 +1728,19 @@
     </row>
     <row customHeight="1" ht="42" r="8" s="3" spans="1:12">
       <c r="A8" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="C8" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="D8" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="E8" s="14" t="s">
         <v>91</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>92</v>
       </c>
       <c r="F8" s="14" t="n"/>
       <c r="G8" s="1" t="n"/>
@@ -1785,13 +1756,13 @@
     </row>
     <row customHeight="1" ht="42" r="9" s="3" spans="1:12">
       <c r="A9" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B9" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="14" t="s">
         <v>65</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>66</v>
       </c>
       <c r="D9" s="1" t="n"/>
       <c r="E9" s="1" t="n"/>
@@ -1809,22 +1780,22 @@
     </row>
     <row customHeight="1" ht="42" r="10" s="3" spans="1:12">
       <c r="A10" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="C10" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="C10" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="E10" s="14" t="s">
+      <c r="F10" s="14" t="s">
         <v>96</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>97</v>
       </c>
       <c r="G10" s="1" t="n"/>
       <c r="H10" s="1" t="s">
@@ -1839,25 +1810,25 @@
     </row>
     <row customHeight="1" ht="42" r="11" s="3" spans="1:12">
       <c r="A11" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="C11" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="C11" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="D11" s="14" t="s">
+      <c r="E11" s="14" t="s">
         <v>100</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>101</v>
       </c>
       <c r="F11" s="14" t="n">
         <v>-1</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>132</v>
@@ -1871,19 +1842,19 @@
     </row>
     <row customHeight="1" ht="42" r="12" s="3" spans="1:12">
       <c r="A12" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="C12" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" s="14" t="s">
         <v>104</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>105</v>
       </c>
       <c r="F12" s="1" t="n"/>
       <c r="G12" s="1" t="n"/>
@@ -1899,24 +1870,24 @@
     </row>
     <row customHeight="1" ht="42" r="13" s="3" spans="1:12">
       <c r="A13" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="C13" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="C13" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>109</v>
-      </c>
       <c r="E13" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F13" s="14" t="n"/>
       <c r="G13" s="1" t="n"/>
       <c r="H13" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="I13" s="40" t="s">
         <v>39</v>
@@ -1926,7 +1897,7 @@
         <v>15</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row customHeight="1" ht="42" r="14" s="3" spans="1:12">
@@ -1934,17 +1905,17 @@
         <v>111</v>
       </c>
       <c r="B14" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="14" t="s">
         <v>65</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>66</v>
       </c>
       <c r="D14" s="1" t="n"/>
       <c r="E14" s="1" t="n"/>
       <c r="F14" s="14" t="n"/>
       <c r="G14" s="1" t="n"/>
       <c r="H14" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I14" s="40" t="s">
         <v>39</v>
@@ -1974,7 +1945,7 @@
         <v>117</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I15" s="40" t="s">
         <v>39</v>
@@ -1985,26 +1956,26 @@
     </row>
     <row customHeight="1" ht="42" r="16" s="3" spans="1:12">
       <c r="A16" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B16" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="C16" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="D16" s="14" t="s">
         <v>121</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>122</v>
       </c>
       <c r="E16" s="1" t="n"/>
       <c r="F16" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G16" s="14" t="s">
         <v>117</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I16" s="40" t="s">
         <v>39</v>
@@ -2015,24 +1986,24 @@
     </row>
     <row customHeight="1" ht="42" r="17" s="3" spans="1:12">
       <c r="A17" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B17" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>125</v>
-      </c>
       <c r="C17" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D17" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" s="14" t="s">
         <v>73</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>74</v>
       </c>
       <c r="F17" s="1" t="n"/>
       <c r="G17" s="1" t="n"/>
       <c r="H17" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I17" s="40" t="s">
         <v>39</v>
@@ -2087,22 +2058,22 @@
         <v>1</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>48</v>
-      </c>
       <c r="D1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>64</v>
-      </c>
       <c r="G1" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>8</v>
@@ -2111,13 +2082,13 @@
         <v>9</v>
       </c>
       <c r="J1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>55</v>
       </c>
     </row>
     <row customHeight="1" ht="42" r="2" s="3" spans="1:12">
@@ -2128,25 +2099,21 @@
         <v>21</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D2" s="1" t="n"/>
       <c r="E2" s="1" t="n"/>
       <c r="F2" s="14" t="n"/>
       <c r="G2" s="1" t="n"/>
       <c r="H2" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="I2" s="42" t="s">
-        <v>133</v>
-      </c>
-      <c r="J2" s="1" t="s">
         <v>137</v>
       </c>
+      <c r="I2" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" s="1" t="s"/>
       <c r="K2" s="1" t="n"/>
-      <c r="L2" s="1" t="s">
-        <v>138</v>
-      </c>
+      <c r="L2" s="1" t="s"/>
     </row>
   </sheetData>
   <dataValidations count="1">
